--- a/Projects/SINOTH_SAND/Data/Template.xlsx
+++ b/Projects/SINOTH_SAND/Data/Template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
   <si>
     <t xml:space="preserve">kpi_name</t>
   </si>
@@ -33,7 +33,7 @@
     <t xml:space="preserve">active</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOS_OWN_DISTRI_IN_WHOLE_STORE</t>
+    <t xml:space="preserve">FSOS_OWN_DISTRIBUTOR_IN_WHOLE_STORE</t>
   </si>
   <si>
     <t xml:space="preserve">FSOS</t>
@@ -42,25 +42,19 @@
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOS_ALL_MANUF_IN_WHOLE_STORE</t>
+    <t xml:space="preserve">FSOS_ALL_DISTRIBUTOR_ALL_BRAND_IN_WHOLE_STORE</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOS_ALL_MANUF_ALL_BRAND_IN_WHOLE_STORE</t>
+    <t xml:space="preserve">FSOS_ALL_DISTRIBUTOR_ALL_BRAND_ALL_SKU</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOS_ALL_MANUF_ALL_BRAND_ALL_SKU</t>
+    <t xml:space="preserve">FSOS_OWN_DISTRIBUTOR_ALL_CAT</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOS_OWN_DISTRI_ALL_CAT</t>
+    <t xml:space="preserve">FSOS_ALL_DISTRIBUTOR_ALL_CAT_ALL_BRAND</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_BRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_BRAND_ALL_SKU</t>
+    <t xml:space="preserve">FSOS_ALL_DISTRIBUTOR_ALL_CAT_ALL_BRAND_ALL_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">kpi_parent</t>
@@ -102,13 +96,10 @@
     <t xml:space="preserve">context</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOS_OWN_DISTRIBUTOR_IN_WHOLE_STORE</t>
-  </si>
-  <si>
     <t xml:space="preserve">distributor</t>
   </si>
   <si>
-    <t xml:space="preserve">Smirnoff</t>
+    <t xml:space="preserve">SINO PACIFIC</t>
   </si>
   <si>
     <t xml:space="preserve">manufacturer</t>
@@ -117,16 +108,13 @@
     <t xml:space="preserve">store</t>
   </si>
   <si>
-    <t xml:space="preserve">On Trade,Off Trade,Hybrid Off</t>
+    <t xml:space="preserve">all</t>
   </si>
   <si>
     <t xml:space="preserve">brand</t>
   </si>
   <si>
     <t xml:space="preserve">product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOS_OWN_DISTRIBUTOR_ALL_CAT</t>
   </si>
   <si>
     <t xml:space="preserve">category</t>
@@ -158,6 +146,12 @@
   <si>
     <t xml:space="preserve">Main Shelf</t>
   </si>
+  <si>
+    <t xml:space="preserve">ASSORTMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -188,8 +182,15 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,20 +211,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66FF66"/>
-        <bgColor rgb="FF66FF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF66CC00"/>
-        <bgColor rgb="FF66FF66"/>
+        <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF99"/>
-        <bgColor rgb="FF66FF66"/>
+        <bgColor rgb="FF33FF99"/>
       </patternFill>
     </fill>
     <fill>
@@ -234,20 +229,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
+        <fgColor rgb="FF99FFFF"/>
+        <bgColor rgb="FFC5F9CB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3399FF"/>
-        <bgColor rgb="FF00CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC2E8FB"/>
-        <bgColor rgb="FFC8F9D0"/>
+        <fgColor rgb="FF33FF99"/>
+        <bgColor rgb="FF66FF99"/>
       </patternFill>
     </fill>
     <fill>
@@ -274,8 +263,14 @@
         <bgColor rgb="FFF69ABE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66CC"/>
+        <bgColor rgb="FFF69ABE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -311,48 +306,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -379,7 +332,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -408,27 +361,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -444,31 +389,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -476,71 +413,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -568,15 +465,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -584,32 +473,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -626,7 +495,7 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF66FF66"/>
+      <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -656,15 +525,15 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFC2E8FB"/>
+      <rgbColor rgb="FF99FFFF"/>
       <rgbColor rgb="FFC8F9D0"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF66FF99"/>
       <rgbColor rgb="FFF69ABE"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFF66CC"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3399FF"/>
-      <rgbColor rgb="FF66FF99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33FF99"/>
       <rgbColor rgb="FF66CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -689,21 +558,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="6:7 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.1683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,29 +646,9 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B2:B7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -817,69 +665,72 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMH9"/>
+  <dimension ref="1:7"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topRight" activeCell="A7" activeCellId="0" sqref="6:7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="13" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="13" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="13" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="13" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="13" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1022" min="15" style="13" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="54.1326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="55.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="11" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="11" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="11" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="11" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="11" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="11" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1021" min="15" style="11" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="O1" s="0"/>
       <c r="P1" s="0"/>
@@ -1888,36 +1739,35 @@
       <c r="AME1" s="0"/>
       <c r="AMF1" s="0"/>
       <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="L2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>30</v>
+      <c r="N2" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="O2" s="0"/>
       <c r="P2" s="0"/>
@@ -2926,36 +2776,37 @@
       <c r="AME2" s="0"/>
       <c r="AMF2" s="0"/>
       <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="21" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>30</v>
       </c>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
@@ -3964,38 +3815,39 @@
       <c r="AME3" s="0"/>
       <c r="AMF3" s="0"/>
       <c r="AMG3" s="0"/>
-      <c r="AMH3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>32</v>
+      <c r="E4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="O4" s="0"/>
       <c r="P4" s="0"/>
@@ -5004,175 +4856,1121 @@
       <c r="AME4" s="0"/>
       <c r="AMF4" s="0"/>
       <c r="AMG4" s="0"/>
-      <c r="AMH4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+      <c r="AE5" s="0"/>
+      <c r="AF5" s="0"/>
+      <c r="AG5" s="0"/>
+      <c r="AH5" s="0"/>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="0"/>
+      <c r="AK5" s="0"/>
+      <c r="AL5" s="0"/>
+      <c r="AM5" s="0"/>
+      <c r="AN5" s="0"/>
+      <c r="AO5" s="0"/>
+      <c r="AP5" s="0"/>
+      <c r="AQ5" s="0"/>
+      <c r="AR5" s="0"/>
+      <c r="AS5" s="0"/>
+      <c r="AT5" s="0"/>
+      <c r="AU5" s="0"/>
+      <c r="AV5" s="0"/>
+      <c r="AW5" s="0"/>
+      <c r="AX5" s="0"/>
+      <c r="AY5" s="0"/>
+      <c r="AZ5" s="0"/>
+      <c r="BA5" s="0"/>
+      <c r="BB5" s="0"/>
+      <c r="BC5" s="0"/>
+      <c r="BD5" s="0"/>
+      <c r="BE5" s="0"/>
+      <c r="BF5" s="0"/>
+      <c r="BG5" s="0"/>
+      <c r="BH5" s="0"/>
+      <c r="BI5" s="0"/>
+      <c r="BJ5" s="0"/>
+      <c r="BK5" s="0"/>
+      <c r="BL5" s="0"/>
+      <c r="BM5" s="0"/>
+      <c r="BN5" s="0"/>
+      <c r="BO5" s="0"/>
+      <c r="BP5" s="0"/>
+      <c r="BQ5" s="0"/>
+      <c r="BR5" s="0"/>
+      <c r="BS5" s="0"/>
+      <c r="BT5" s="0"/>
+      <c r="BU5" s="0"/>
+      <c r="BV5" s="0"/>
+      <c r="BW5" s="0"/>
+      <c r="BX5" s="0"/>
+      <c r="BY5" s="0"/>
+      <c r="BZ5" s="0"/>
+      <c r="CA5" s="0"/>
+      <c r="CB5" s="0"/>
+      <c r="CC5" s="0"/>
+      <c r="CD5" s="0"/>
+      <c r="CE5" s="0"/>
+      <c r="CF5" s="0"/>
+      <c r="CG5" s="0"/>
+      <c r="CH5" s="0"/>
+      <c r="CI5" s="0"/>
+      <c r="CJ5" s="0"/>
+      <c r="CK5" s="0"/>
+      <c r="CL5" s="0"/>
+      <c r="CM5" s="0"/>
+      <c r="CN5" s="0"/>
+      <c r="CO5" s="0"/>
+      <c r="CP5" s="0"/>
+      <c r="CQ5" s="0"/>
+      <c r="CR5" s="0"/>
+      <c r="CS5" s="0"/>
+      <c r="CT5" s="0"/>
+      <c r="CU5" s="0"/>
+      <c r="CV5" s="0"/>
+      <c r="CW5" s="0"/>
+      <c r="CX5" s="0"/>
+      <c r="CY5" s="0"/>
+      <c r="CZ5" s="0"/>
+      <c r="DA5" s="0"/>
+      <c r="DB5" s="0"/>
+      <c r="DC5" s="0"/>
+      <c r="DD5" s="0"/>
+      <c r="DE5" s="0"/>
+      <c r="DF5" s="0"/>
+      <c r="DG5" s="0"/>
+      <c r="DH5" s="0"/>
+      <c r="DI5" s="0"/>
+      <c r="DJ5" s="0"/>
+      <c r="DK5" s="0"/>
+      <c r="DL5" s="0"/>
+      <c r="DM5" s="0"/>
+      <c r="DN5" s="0"/>
+      <c r="DO5" s="0"/>
+      <c r="DP5" s="0"/>
+      <c r="DQ5" s="0"/>
+      <c r="DR5" s="0"/>
+      <c r="DS5" s="0"/>
+      <c r="DT5" s="0"/>
+      <c r="DU5" s="0"/>
+      <c r="DV5" s="0"/>
+      <c r="DW5" s="0"/>
+      <c r="DX5" s="0"/>
+      <c r="DY5" s="0"/>
+      <c r="DZ5" s="0"/>
+      <c r="EA5" s="0"/>
+      <c r="EB5" s="0"/>
+      <c r="EC5" s="0"/>
+      <c r="ED5" s="0"/>
+      <c r="EE5" s="0"/>
+      <c r="EF5" s="0"/>
+      <c r="EG5" s="0"/>
+      <c r="EH5" s="0"/>
+      <c r="EI5" s="0"/>
+      <c r="EJ5" s="0"/>
+      <c r="EK5" s="0"/>
+      <c r="EL5" s="0"/>
+      <c r="EM5" s="0"/>
+      <c r="EN5" s="0"/>
+      <c r="EO5" s="0"/>
+      <c r="EP5" s="0"/>
+      <c r="EQ5" s="0"/>
+      <c r="ER5" s="0"/>
+      <c r="ES5" s="0"/>
+      <c r="ET5" s="0"/>
+      <c r="EU5" s="0"/>
+      <c r="EV5" s="0"/>
+      <c r="EW5" s="0"/>
+      <c r="EX5" s="0"/>
+      <c r="EY5" s="0"/>
+      <c r="EZ5" s="0"/>
+      <c r="FA5" s="0"/>
+      <c r="FB5" s="0"/>
+      <c r="FC5" s="0"/>
+      <c r="FD5" s="0"/>
+      <c r="FE5" s="0"/>
+      <c r="FF5" s="0"/>
+      <c r="FG5" s="0"/>
+      <c r="FH5" s="0"/>
+      <c r="FI5" s="0"/>
+      <c r="FJ5" s="0"/>
+      <c r="FK5" s="0"/>
+      <c r="FL5" s="0"/>
+      <c r="FM5" s="0"/>
+      <c r="FN5" s="0"/>
+      <c r="FO5" s="0"/>
+      <c r="FP5" s="0"/>
+      <c r="FQ5" s="0"/>
+      <c r="FR5" s="0"/>
+      <c r="FS5" s="0"/>
+      <c r="FT5" s="0"/>
+      <c r="FU5" s="0"/>
+      <c r="FV5" s="0"/>
+      <c r="FW5" s="0"/>
+      <c r="FX5" s="0"/>
+      <c r="FY5" s="0"/>
+      <c r="FZ5" s="0"/>
+      <c r="GA5" s="0"/>
+      <c r="GB5" s="0"/>
+      <c r="GC5" s="0"/>
+      <c r="GD5" s="0"/>
+      <c r="GE5" s="0"/>
+      <c r="GF5" s="0"/>
+      <c r="GG5" s="0"/>
+      <c r="GH5" s="0"/>
+      <c r="GI5" s="0"/>
+      <c r="GJ5" s="0"/>
+      <c r="GK5" s="0"/>
+      <c r="GL5" s="0"/>
+      <c r="GM5" s="0"/>
+      <c r="GN5" s="0"/>
+      <c r="GO5" s="0"/>
+      <c r="GP5" s="0"/>
+      <c r="GQ5" s="0"/>
+      <c r="GR5" s="0"/>
+      <c r="GS5" s="0"/>
+      <c r="GT5" s="0"/>
+      <c r="GU5" s="0"/>
+      <c r="GV5" s="0"/>
+      <c r="GW5" s="0"/>
+      <c r="GX5" s="0"/>
+      <c r="GY5" s="0"/>
+      <c r="GZ5" s="0"/>
+      <c r="HA5" s="0"/>
+      <c r="HB5" s="0"/>
+      <c r="HC5" s="0"/>
+      <c r="HD5" s="0"/>
+      <c r="HE5" s="0"/>
+      <c r="HF5" s="0"/>
+      <c r="HG5" s="0"/>
+      <c r="HH5" s="0"/>
+      <c r="HI5" s="0"/>
+      <c r="HJ5" s="0"/>
+      <c r="HK5" s="0"/>
+      <c r="HL5" s="0"/>
+      <c r="HM5" s="0"/>
+      <c r="HN5" s="0"/>
+      <c r="HO5" s="0"/>
+      <c r="HP5" s="0"/>
+      <c r="HQ5" s="0"/>
+      <c r="HR5" s="0"/>
+      <c r="HS5" s="0"/>
+      <c r="HT5" s="0"/>
+      <c r="HU5" s="0"/>
+      <c r="HV5" s="0"/>
+      <c r="HW5" s="0"/>
+      <c r="HX5" s="0"/>
+      <c r="HY5" s="0"/>
+      <c r="HZ5" s="0"/>
+      <c r="IA5" s="0"/>
+      <c r="IB5" s="0"/>
+      <c r="IC5" s="0"/>
+      <c r="ID5" s="0"/>
+      <c r="IE5" s="0"/>
+      <c r="IF5" s="0"/>
+      <c r="IG5" s="0"/>
+      <c r="IH5" s="0"/>
+      <c r="II5" s="0"/>
+      <c r="IJ5" s="0"/>
+      <c r="IK5" s="0"/>
+      <c r="IL5" s="0"/>
+      <c r="IM5" s="0"/>
+      <c r="IN5" s="0"/>
+      <c r="IO5" s="0"/>
+      <c r="IP5" s="0"/>
+      <c r="IQ5" s="0"/>
+      <c r="IR5" s="0"/>
+      <c r="IS5" s="0"/>
+      <c r="IT5" s="0"/>
+      <c r="IU5" s="0"/>
+      <c r="IV5" s="0"/>
+      <c r="IW5" s="0"/>
+      <c r="IX5" s="0"/>
+      <c r="IY5" s="0"/>
+      <c r="IZ5" s="0"/>
+      <c r="JA5" s="0"/>
+      <c r="JB5" s="0"/>
+      <c r="JC5" s="0"/>
+      <c r="JD5" s="0"/>
+      <c r="JE5" s="0"/>
+      <c r="JF5" s="0"/>
+      <c r="JG5" s="0"/>
+      <c r="JH5" s="0"/>
+      <c r="JI5" s="0"/>
+      <c r="JJ5" s="0"/>
+      <c r="JK5" s="0"/>
+      <c r="JL5" s="0"/>
+      <c r="JM5" s="0"/>
+      <c r="JN5" s="0"/>
+      <c r="JO5" s="0"/>
+      <c r="JP5" s="0"/>
+      <c r="JQ5" s="0"/>
+      <c r="JR5" s="0"/>
+      <c r="JS5" s="0"/>
+      <c r="JT5" s="0"/>
+      <c r="JU5" s="0"/>
+      <c r="JV5" s="0"/>
+      <c r="JW5" s="0"/>
+      <c r="JX5" s="0"/>
+      <c r="JY5" s="0"/>
+      <c r="JZ5" s="0"/>
+      <c r="KA5" s="0"/>
+      <c r="KB5" s="0"/>
+      <c r="KC5" s="0"/>
+      <c r="KD5" s="0"/>
+      <c r="KE5" s="0"/>
+      <c r="KF5" s="0"/>
+      <c r="KG5" s="0"/>
+      <c r="KH5" s="0"/>
+      <c r="KI5" s="0"/>
+      <c r="KJ5" s="0"/>
+      <c r="KK5" s="0"/>
+      <c r="KL5" s="0"/>
+      <c r="KM5" s="0"/>
+      <c r="KN5" s="0"/>
+      <c r="KO5" s="0"/>
+      <c r="KP5" s="0"/>
+      <c r="KQ5" s="0"/>
+      <c r="KR5" s="0"/>
+      <c r="KS5" s="0"/>
+      <c r="KT5" s="0"/>
+      <c r="KU5" s="0"/>
+      <c r="KV5" s="0"/>
+      <c r="KW5" s="0"/>
+      <c r="KX5" s="0"/>
+      <c r="KY5" s="0"/>
+      <c r="KZ5" s="0"/>
+      <c r="LA5" s="0"/>
+      <c r="LB5" s="0"/>
+      <c r="LC5" s="0"/>
+      <c r="LD5" s="0"/>
+      <c r="LE5" s="0"/>
+      <c r="LF5" s="0"/>
+      <c r="LG5" s="0"/>
+      <c r="LH5" s="0"/>
+      <c r="LI5" s="0"/>
+      <c r="LJ5" s="0"/>
+      <c r="LK5" s="0"/>
+      <c r="LL5" s="0"/>
+      <c r="LM5" s="0"/>
+      <c r="LN5" s="0"/>
+      <c r="LO5" s="0"/>
+      <c r="LP5" s="0"/>
+      <c r="LQ5" s="0"/>
+      <c r="LR5" s="0"/>
+      <c r="LS5" s="0"/>
+      <c r="LT5" s="0"/>
+      <c r="LU5" s="0"/>
+      <c r="LV5" s="0"/>
+      <c r="LW5" s="0"/>
+      <c r="LX5" s="0"/>
+      <c r="LY5" s="0"/>
+      <c r="LZ5" s="0"/>
+      <c r="MA5" s="0"/>
+      <c r="MB5" s="0"/>
+      <c r="MC5" s="0"/>
+      <c r="MD5" s="0"/>
+      <c r="ME5" s="0"/>
+      <c r="MF5" s="0"/>
+      <c r="MG5" s="0"/>
+      <c r="MH5" s="0"/>
+      <c r="MI5" s="0"/>
+      <c r="MJ5" s="0"/>
+      <c r="MK5" s="0"/>
+      <c r="ML5" s="0"/>
+      <c r="MM5" s="0"/>
+      <c r="MN5" s="0"/>
+      <c r="MO5" s="0"/>
+      <c r="MP5" s="0"/>
+      <c r="MQ5" s="0"/>
+      <c r="MR5" s="0"/>
+      <c r="MS5" s="0"/>
+      <c r="MT5" s="0"/>
+      <c r="MU5" s="0"/>
+      <c r="MV5" s="0"/>
+      <c r="MW5" s="0"/>
+      <c r="MX5" s="0"/>
+      <c r="MY5" s="0"/>
+      <c r="MZ5" s="0"/>
+      <c r="NA5" s="0"/>
+      <c r="NB5" s="0"/>
+      <c r="NC5" s="0"/>
+      <c r="ND5" s="0"/>
+      <c r="NE5" s="0"/>
+      <c r="NF5" s="0"/>
+      <c r="NG5" s="0"/>
+      <c r="NH5" s="0"/>
+      <c r="NI5" s="0"/>
+      <c r="NJ5" s="0"/>
+      <c r="NK5" s="0"/>
+      <c r="NL5" s="0"/>
+      <c r="NM5" s="0"/>
+      <c r="NN5" s="0"/>
+      <c r="NO5" s="0"/>
+      <c r="NP5" s="0"/>
+      <c r="NQ5" s="0"/>
+      <c r="NR5" s="0"/>
+      <c r="NS5" s="0"/>
+      <c r="NT5" s="0"/>
+      <c r="NU5" s="0"/>
+      <c r="NV5" s="0"/>
+      <c r="NW5" s="0"/>
+      <c r="NX5" s="0"/>
+      <c r="NY5" s="0"/>
+      <c r="NZ5" s="0"/>
+      <c r="OA5" s="0"/>
+      <c r="OB5" s="0"/>
+      <c r="OC5" s="0"/>
+      <c r="OD5" s="0"/>
+      <c r="OE5" s="0"/>
+      <c r="OF5" s="0"/>
+      <c r="OG5" s="0"/>
+      <c r="OH5" s="0"/>
+      <c r="OI5" s="0"/>
+      <c r="OJ5" s="0"/>
+      <c r="OK5" s="0"/>
+      <c r="OL5" s="0"/>
+      <c r="OM5" s="0"/>
+      <c r="ON5" s="0"/>
+      <c r="OO5" s="0"/>
+      <c r="OP5" s="0"/>
+      <c r="OQ5" s="0"/>
+      <c r="OR5" s="0"/>
+      <c r="OS5" s="0"/>
+      <c r="OT5" s="0"/>
+      <c r="OU5" s="0"/>
+      <c r="OV5" s="0"/>
+      <c r="OW5" s="0"/>
+      <c r="OX5" s="0"/>
+      <c r="OY5" s="0"/>
+      <c r="OZ5" s="0"/>
+      <c r="PA5" s="0"/>
+      <c r="PB5" s="0"/>
+      <c r="PC5" s="0"/>
+      <c r="PD5" s="0"/>
+      <c r="PE5" s="0"/>
+      <c r="PF5" s="0"/>
+      <c r="PG5" s="0"/>
+      <c r="PH5" s="0"/>
+      <c r="PI5" s="0"/>
+      <c r="PJ5" s="0"/>
+      <c r="PK5" s="0"/>
+      <c r="PL5" s="0"/>
+      <c r="PM5" s="0"/>
+      <c r="PN5" s="0"/>
+      <c r="PO5" s="0"/>
+      <c r="PP5" s="0"/>
+      <c r="PQ5" s="0"/>
+      <c r="PR5" s="0"/>
+      <c r="PS5" s="0"/>
+      <c r="PT5" s="0"/>
+      <c r="PU5" s="0"/>
+      <c r="PV5" s="0"/>
+      <c r="PW5" s="0"/>
+      <c r="PX5" s="0"/>
+      <c r="PY5" s="0"/>
+      <c r="PZ5" s="0"/>
+      <c r="QA5" s="0"/>
+      <c r="QB5" s="0"/>
+      <c r="QC5" s="0"/>
+      <c r="QD5" s="0"/>
+      <c r="QE5" s="0"/>
+      <c r="QF5" s="0"/>
+      <c r="QG5" s="0"/>
+      <c r="QH5" s="0"/>
+      <c r="QI5" s="0"/>
+      <c r="QJ5" s="0"/>
+      <c r="QK5" s="0"/>
+      <c r="QL5" s="0"/>
+      <c r="QM5" s="0"/>
+      <c r="QN5" s="0"/>
+      <c r="QO5" s="0"/>
+      <c r="QP5" s="0"/>
+      <c r="QQ5" s="0"/>
+      <c r="QR5" s="0"/>
+      <c r="QS5" s="0"/>
+      <c r="QT5" s="0"/>
+      <c r="QU5" s="0"/>
+      <c r="QV5" s="0"/>
+      <c r="QW5" s="0"/>
+      <c r="QX5" s="0"/>
+      <c r="QY5" s="0"/>
+      <c r="QZ5" s="0"/>
+      <c r="RA5" s="0"/>
+      <c r="RB5" s="0"/>
+      <c r="RC5" s="0"/>
+      <c r="RD5" s="0"/>
+      <c r="RE5" s="0"/>
+      <c r="RF5" s="0"/>
+      <c r="RG5" s="0"/>
+      <c r="RH5" s="0"/>
+      <c r="RI5" s="0"/>
+      <c r="RJ5" s="0"/>
+      <c r="RK5" s="0"/>
+      <c r="RL5" s="0"/>
+      <c r="RM5" s="0"/>
+      <c r="RN5" s="0"/>
+      <c r="RO5" s="0"/>
+      <c r="RP5" s="0"/>
+      <c r="RQ5" s="0"/>
+      <c r="RR5" s="0"/>
+      <c r="RS5" s="0"/>
+      <c r="RT5" s="0"/>
+      <c r="RU5" s="0"/>
+      <c r="RV5" s="0"/>
+      <c r="RW5" s="0"/>
+      <c r="RX5" s="0"/>
+      <c r="RY5" s="0"/>
+      <c r="RZ5" s="0"/>
+      <c r="SA5" s="0"/>
+      <c r="SB5" s="0"/>
+      <c r="SC5" s="0"/>
+      <c r="SD5" s="0"/>
+      <c r="SE5" s="0"/>
+      <c r="SF5" s="0"/>
+      <c r="SG5" s="0"/>
+      <c r="SH5" s="0"/>
+      <c r="SI5" s="0"/>
+      <c r="SJ5" s="0"/>
+      <c r="SK5" s="0"/>
+      <c r="SL5" s="0"/>
+      <c r="SM5" s="0"/>
+      <c r="SN5" s="0"/>
+      <c r="SO5" s="0"/>
+      <c r="SP5" s="0"/>
+      <c r="SQ5" s="0"/>
+      <c r="SR5" s="0"/>
+      <c r="SS5" s="0"/>
+      <c r="ST5" s="0"/>
+      <c r="SU5" s="0"/>
+      <c r="SV5" s="0"/>
+      <c r="SW5" s="0"/>
+      <c r="SX5" s="0"/>
+      <c r="SY5" s="0"/>
+      <c r="SZ5" s="0"/>
+      <c r="TA5" s="0"/>
+      <c r="TB5" s="0"/>
+      <c r="TC5" s="0"/>
+      <c r="TD5" s="0"/>
+      <c r="TE5" s="0"/>
+      <c r="TF5" s="0"/>
+      <c r="TG5" s="0"/>
+      <c r="TH5" s="0"/>
+      <c r="TI5" s="0"/>
+      <c r="TJ5" s="0"/>
+      <c r="TK5" s="0"/>
+      <c r="TL5" s="0"/>
+      <c r="TM5" s="0"/>
+      <c r="TN5" s="0"/>
+      <c r="TO5" s="0"/>
+      <c r="TP5" s="0"/>
+      <c r="TQ5" s="0"/>
+      <c r="TR5" s="0"/>
+      <c r="TS5" s="0"/>
+      <c r="TT5" s="0"/>
+      <c r="TU5" s="0"/>
+      <c r="TV5" s="0"/>
+      <c r="TW5" s="0"/>
+      <c r="TX5" s="0"/>
+      <c r="TY5" s="0"/>
+      <c r="TZ5" s="0"/>
+      <c r="UA5" s="0"/>
+      <c r="UB5" s="0"/>
+      <c r="UC5" s="0"/>
+      <c r="UD5" s="0"/>
+      <c r="UE5" s="0"/>
+      <c r="UF5" s="0"/>
+      <c r="UG5" s="0"/>
+      <c r="UH5" s="0"/>
+      <c r="UI5" s="0"/>
+      <c r="UJ5" s="0"/>
+      <c r="UK5" s="0"/>
+      <c r="UL5" s="0"/>
+      <c r="UM5" s="0"/>
+      <c r="UN5" s="0"/>
+      <c r="UO5" s="0"/>
+      <c r="UP5" s="0"/>
+      <c r="UQ5" s="0"/>
+      <c r="UR5" s="0"/>
+      <c r="US5" s="0"/>
+      <c r="UT5" s="0"/>
+      <c r="UU5" s="0"/>
+      <c r="UV5" s="0"/>
+      <c r="UW5" s="0"/>
+      <c r="UX5" s="0"/>
+      <c r="UY5" s="0"/>
+      <c r="UZ5" s="0"/>
+      <c r="VA5" s="0"/>
+      <c r="VB5" s="0"/>
+      <c r="VC5" s="0"/>
+      <c r="VD5" s="0"/>
+      <c r="VE5" s="0"/>
+      <c r="VF5" s="0"/>
+      <c r="VG5" s="0"/>
+      <c r="VH5" s="0"/>
+      <c r="VI5" s="0"/>
+      <c r="VJ5" s="0"/>
+      <c r="VK5" s="0"/>
+      <c r="VL5" s="0"/>
+      <c r="VM5" s="0"/>
+      <c r="VN5" s="0"/>
+      <c r="VO5" s="0"/>
+      <c r="VP5" s="0"/>
+      <c r="VQ5" s="0"/>
+      <c r="VR5" s="0"/>
+      <c r="VS5" s="0"/>
+      <c r="VT5" s="0"/>
+      <c r="VU5" s="0"/>
+      <c r="VV5" s="0"/>
+      <c r="VW5" s="0"/>
+      <c r="VX5" s="0"/>
+      <c r="VY5" s="0"/>
+      <c r="VZ5" s="0"/>
+      <c r="WA5" s="0"/>
+      <c r="WB5" s="0"/>
+      <c r="WC5" s="0"/>
+      <c r="WD5" s="0"/>
+      <c r="WE5" s="0"/>
+      <c r="WF5" s="0"/>
+      <c r="WG5" s="0"/>
+      <c r="WH5" s="0"/>
+      <c r="WI5" s="0"/>
+      <c r="WJ5" s="0"/>
+      <c r="WK5" s="0"/>
+      <c r="WL5" s="0"/>
+      <c r="WM5" s="0"/>
+      <c r="WN5" s="0"/>
+      <c r="WO5" s="0"/>
+      <c r="WP5" s="0"/>
+      <c r="WQ5" s="0"/>
+      <c r="WR5" s="0"/>
+      <c r="WS5" s="0"/>
+      <c r="WT5" s="0"/>
+      <c r="WU5" s="0"/>
+      <c r="WV5" s="0"/>
+      <c r="WW5" s="0"/>
+      <c r="WX5" s="0"/>
+      <c r="WY5" s="0"/>
+      <c r="WZ5" s="0"/>
+      <c r="XA5" s="0"/>
+      <c r="XB5" s="0"/>
+      <c r="XC5" s="0"/>
+      <c r="XD5" s="0"/>
+      <c r="XE5" s="0"/>
+      <c r="XF5" s="0"/>
+      <c r="XG5" s="0"/>
+      <c r="XH5" s="0"/>
+      <c r="XI5" s="0"/>
+      <c r="XJ5" s="0"/>
+      <c r="XK5" s="0"/>
+      <c r="XL5" s="0"/>
+      <c r="XM5" s="0"/>
+      <c r="XN5" s="0"/>
+      <c r="XO5" s="0"/>
+      <c r="XP5" s="0"/>
+      <c r="XQ5" s="0"/>
+      <c r="XR5" s="0"/>
+      <c r="XS5" s="0"/>
+      <c r="XT5" s="0"/>
+      <c r="XU5" s="0"/>
+      <c r="XV5" s="0"/>
+      <c r="XW5" s="0"/>
+      <c r="XX5" s="0"/>
+      <c r="XY5" s="0"/>
+      <c r="XZ5" s="0"/>
+      <c r="YA5" s="0"/>
+      <c r="YB5" s="0"/>
+      <c r="YC5" s="0"/>
+      <c r="YD5" s="0"/>
+      <c r="YE5" s="0"/>
+      <c r="YF5" s="0"/>
+      <c r="YG5" s="0"/>
+      <c r="YH5" s="0"/>
+      <c r="YI5" s="0"/>
+      <c r="YJ5" s="0"/>
+      <c r="YK5" s="0"/>
+      <c r="YL5" s="0"/>
+      <c r="YM5" s="0"/>
+      <c r="YN5" s="0"/>
+      <c r="YO5" s="0"/>
+      <c r="YP5" s="0"/>
+      <c r="YQ5" s="0"/>
+      <c r="YR5" s="0"/>
+      <c r="YS5" s="0"/>
+      <c r="YT5" s="0"/>
+      <c r="YU5" s="0"/>
+      <c r="YV5" s="0"/>
+      <c r="YW5" s="0"/>
+      <c r="YX5" s="0"/>
+      <c r="YY5" s="0"/>
+      <c r="YZ5" s="0"/>
+      <c r="ZA5" s="0"/>
+      <c r="ZB5" s="0"/>
+      <c r="ZC5" s="0"/>
+      <c r="ZD5" s="0"/>
+      <c r="ZE5" s="0"/>
+      <c r="ZF5" s="0"/>
+      <c r="ZG5" s="0"/>
+      <c r="ZH5" s="0"/>
+      <c r="ZI5" s="0"/>
+      <c r="ZJ5" s="0"/>
+      <c r="ZK5" s="0"/>
+      <c r="ZL5" s="0"/>
+      <c r="ZM5" s="0"/>
+      <c r="ZN5" s="0"/>
+      <c r="ZO5" s="0"/>
+      <c r="ZP5" s="0"/>
+      <c r="ZQ5" s="0"/>
+      <c r="ZR5" s="0"/>
+      <c r="ZS5" s="0"/>
+      <c r="ZT5" s="0"/>
+      <c r="ZU5" s="0"/>
+      <c r="ZV5" s="0"/>
+      <c r="ZW5" s="0"/>
+      <c r="ZX5" s="0"/>
+      <c r="ZY5" s="0"/>
+      <c r="ZZ5" s="0"/>
+      <c r="AAA5" s="0"/>
+      <c r="AAB5" s="0"/>
+      <c r="AAC5" s="0"/>
+      <c r="AAD5" s="0"/>
+      <c r="AAE5" s="0"/>
+      <c r="AAF5" s="0"/>
+      <c r="AAG5" s="0"/>
+      <c r="AAH5" s="0"/>
+      <c r="AAI5" s="0"/>
+      <c r="AAJ5" s="0"/>
+      <c r="AAK5" s="0"/>
+      <c r="AAL5" s="0"/>
+      <c r="AAM5" s="0"/>
+      <c r="AAN5" s="0"/>
+      <c r="AAO5" s="0"/>
+      <c r="AAP5" s="0"/>
+      <c r="AAQ5" s="0"/>
+      <c r="AAR5" s="0"/>
+      <c r="AAS5" s="0"/>
+      <c r="AAT5" s="0"/>
+      <c r="AAU5" s="0"/>
+      <c r="AAV5" s="0"/>
+      <c r="AAW5" s="0"/>
+      <c r="AAX5" s="0"/>
+      <c r="AAY5" s="0"/>
+      <c r="AAZ5" s="0"/>
+      <c r="ABA5" s="0"/>
+      <c r="ABB5" s="0"/>
+      <c r="ABC5" s="0"/>
+      <c r="ABD5" s="0"/>
+      <c r="ABE5" s="0"/>
+      <c r="ABF5" s="0"/>
+      <c r="ABG5" s="0"/>
+      <c r="ABH5" s="0"/>
+      <c r="ABI5" s="0"/>
+      <c r="ABJ5" s="0"/>
+      <c r="ABK5" s="0"/>
+      <c r="ABL5" s="0"/>
+      <c r="ABM5" s="0"/>
+      <c r="ABN5" s="0"/>
+      <c r="ABO5" s="0"/>
+      <c r="ABP5" s="0"/>
+      <c r="ABQ5" s="0"/>
+      <c r="ABR5" s="0"/>
+      <c r="ABS5" s="0"/>
+      <c r="ABT5" s="0"/>
+      <c r="ABU5" s="0"/>
+      <c r="ABV5" s="0"/>
+      <c r="ABW5" s="0"/>
+      <c r="ABX5" s="0"/>
+      <c r="ABY5" s="0"/>
+      <c r="ABZ5" s="0"/>
+      <c r="ACA5" s="0"/>
+      <c r="ACB5" s="0"/>
+      <c r="ACC5" s="0"/>
+      <c r="ACD5" s="0"/>
+      <c r="ACE5" s="0"/>
+      <c r="ACF5" s="0"/>
+      <c r="ACG5" s="0"/>
+      <c r="ACH5" s="0"/>
+      <c r="ACI5" s="0"/>
+      <c r="ACJ5" s="0"/>
+      <c r="ACK5" s="0"/>
+      <c r="ACL5" s="0"/>
+      <c r="ACM5" s="0"/>
+      <c r="ACN5" s="0"/>
+      <c r="ACO5" s="0"/>
+      <c r="ACP5" s="0"/>
+      <c r="ACQ5" s="0"/>
+      <c r="ACR5" s="0"/>
+      <c r="ACS5" s="0"/>
+      <c r="ACT5" s="0"/>
+      <c r="ACU5" s="0"/>
+      <c r="ACV5" s="0"/>
+      <c r="ACW5" s="0"/>
+      <c r="ACX5" s="0"/>
+      <c r="ACY5" s="0"/>
+      <c r="ACZ5" s="0"/>
+      <c r="ADA5" s="0"/>
+      <c r="ADB5" s="0"/>
+      <c r="ADC5" s="0"/>
+      <c r="ADD5" s="0"/>
+      <c r="ADE5" s="0"/>
+      <c r="ADF5" s="0"/>
+      <c r="ADG5" s="0"/>
+      <c r="ADH5" s="0"/>
+      <c r="ADI5" s="0"/>
+      <c r="ADJ5" s="0"/>
+      <c r="ADK5" s="0"/>
+      <c r="ADL5" s="0"/>
+      <c r="ADM5" s="0"/>
+      <c r="ADN5" s="0"/>
+      <c r="ADO5" s="0"/>
+      <c r="ADP5" s="0"/>
+      <c r="ADQ5" s="0"/>
+      <c r="ADR5" s="0"/>
+      <c r="ADS5" s="0"/>
+      <c r="ADT5" s="0"/>
+      <c r="ADU5" s="0"/>
+      <c r="ADV5" s="0"/>
+      <c r="ADW5" s="0"/>
+      <c r="ADX5" s="0"/>
+      <c r="ADY5" s="0"/>
+      <c r="ADZ5" s="0"/>
+      <c r="AEA5" s="0"/>
+      <c r="AEB5" s="0"/>
+      <c r="AEC5" s="0"/>
+      <c r="AED5" s="0"/>
+      <c r="AEE5" s="0"/>
+      <c r="AEF5" s="0"/>
+      <c r="AEG5" s="0"/>
+      <c r="AEH5" s="0"/>
+      <c r="AEI5" s="0"/>
+      <c r="AEJ5" s="0"/>
+      <c r="AEK5" s="0"/>
+      <c r="AEL5" s="0"/>
+      <c r="AEM5" s="0"/>
+      <c r="AEN5" s="0"/>
+      <c r="AEO5" s="0"/>
+      <c r="AEP5" s="0"/>
+      <c r="AEQ5" s="0"/>
+      <c r="AER5" s="0"/>
+      <c r="AES5" s="0"/>
+      <c r="AET5" s="0"/>
+      <c r="AEU5" s="0"/>
+      <c r="AEV5" s="0"/>
+      <c r="AEW5" s="0"/>
+      <c r="AEX5" s="0"/>
+      <c r="AEY5" s="0"/>
+      <c r="AEZ5" s="0"/>
+      <c r="AFA5" s="0"/>
+      <c r="AFB5" s="0"/>
+      <c r="AFC5" s="0"/>
+      <c r="AFD5" s="0"/>
+      <c r="AFE5" s="0"/>
+      <c r="AFF5" s="0"/>
+      <c r="AFG5" s="0"/>
+      <c r="AFH5" s="0"/>
+      <c r="AFI5" s="0"/>
+      <c r="AFJ5" s="0"/>
+      <c r="AFK5" s="0"/>
+      <c r="AFL5" s="0"/>
+      <c r="AFM5" s="0"/>
+      <c r="AFN5" s="0"/>
+      <c r="AFO5" s="0"/>
+      <c r="AFP5" s="0"/>
+      <c r="AFQ5" s="0"/>
+      <c r="AFR5" s="0"/>
+      <c r="AFS5" s="0"/>
+      <c r="AFT5" s="0"/>
+      <c r="AFU5" s="0"/>
+      <c r="AFV5" s="0"/>
+      <c r="AFW5" s="0"/>
+      <c r="AFX5" s="0"/>
+      <c r="AFY5" s="0"/>
+      <c r="AFZ5" s="0"/>
+      <c r="AGA5" s="0"/>
+      <c r="AGB5" s="0"/>
+      <c r="AGC5" s="0"/>
+      <c r="AGD5" s="0"/>
+      <c r="AGE5" s="0"/>
+      <c r="AGF5" s="0"/>
+      <c r="AGG5" s="0"/>
+      <c r="AGH5" s="0"/>
+      <c r="AGI5" s="0"/>
+      <c r="AGJ5" s="0"/>
+      <c r="AGK5" s="0"/>
+      <c r="AGL5" s="0"/>
+      <c r="AGM5" s="0"/>
+      <c r="AGN5" s="0"/>
+      <c r="AGO5" s="0"/>
+      <c r="AGP5" s="0"/>
+      <c r="AGQ5" s="0"/>
+      <c r="AGR5" s="0"/>
+      <c r="AGS5" s="0"/>
+      <c r="AGT5" s="0"/>
+      <c r="AGU5" s="0"/>
+      <c r="AGV5" s="0"/>
+      <c r="AGW5" s="0"/>
+      <c r="AGX5" s="0"/>
+      <c r="AGY5" s="0"/>
+      <c r="AGZ5" s="0"/>
+      <c r="AHA5" s="0"/>
+      <c r="AHB5" s="0"/>
+      <c r="AHC5" s="0"/>
+      <c r="AHD5" s="0"/>
+      <c r="AHE5" s="0"/>
+      <c r="AHF5" s="0"/>
+      <c r="AHG5" s="0"/>
+      <c r="AHH5" s="0"/>
+      <c r="AHI5" s="0"/>
+      <c r="AHJ5" s="0"/>
+      <c r="AHK5" s="0"/>
+      <c r="AHL5" s="0"/>
+      <c r="AHM5" s="0"/>
+      <c r="AHN5" s="0"/>
+      <c r="AHO5" s="0"/>
+      <c r="AHP5" s="0"/>
+      <c r="AHQ5" s="0"/>
+      <c r="AHR5" s="0"/>
+      <c r="AHS5" s="0"/>
+      <c r="AHT5" s="0"/>
+      <c r="AHU5" s="0"/>
+      <c r="AHV5" s="0"/>
+      <c r="AHW5" s="0"/>
+      <c r="AHX5" s="0"/>
+      <c r="AHY5" s="0"/>
+      <c r="AHZ5" s="0"/>
+      <c r="AIA5" s="0"/>
+      <c r="AIB5" s="0"/>
+      <c r="AIC5" s="0"/>
+      <c r="AID5" s="0"/>
+      <c r="AIE5" s="0"/>
+      <c r="AIF5" s="0"/>
+      <c r="AIG5" s="0"/>
+      <c r="AIH5" s="0"/>
+      <c r="AII5" s="0"/>
+      <c r="AIJ5" s="0"/>
+      <c r="AIK5" s="0"/>
+      <c r="AIL5" s="0"/>
+      <c r="AIM5" s="0"/>
+      <c r="AIN5" s="0"/>
+      <c r="AIO5" s="0"/>
+      <c r="AIP5" s="0"/>
+      <c r="AIQ5" s="0"/>
+      <c r="AIR5" s="0"/>
+      <c r="AIS5" s="0"/>
+      <c r="AIT5" s="0"/>
+      <c r="AIU5" s="0"/>
+      <c r="AIV5" s="0"/>
+      <c r="AIW5" s="0"/>
+      <c r="AIX5" s="0"/>
+      <c r="AIY5" s="0"/>
+      <c r="AIZ5" s="0"/>
+      <c r="AJA5" s="0"/>
+      <c r="AJB5" s="0"/>
+      <c r="AJC5" s="0"/>
+      <c r="AJD5" s="0"/>
+      <c r="AJE5" s="0"/>
+      <c r="AJF5" s="0"/>
+      <c r="AJG5" s="0"/>
+      <c r="AJH5" s="0"/>
+      <c r="AJI5" s="0"/>
+      <c r="AJJ5" s="0"/>
+      <c r="AJK5" s="0"/>
+      <c r="AJL5" s="0"/>
+      <c r="AJM5" s="0"/>
+      <c r="AJN5" s="0"/>
+      <c r="AJO5" s="0"/>
+      <c r="AJP5" s="0"/>
+      <c r="AJQ5" s="0"/>
+      <c r="AJR5" s="0"/>
+      <c r="AJS5" s="0"/>
+      <c r="AJT5" s="0"/>
+      <c r="AJU5" s="0"/>
+      <c r="AJV5" s="0"/>
+      <c r="AJW5" s="0"/>
+      <c r="AJX5" s="0"/>
+      <c r="AJY5" s="0"/>
+      <c r="AJZ5" s="0"/>
+      <c r="AKA5" s="0"/>
+      <c r="AKB5" s="0"/>
+      <c r="AKC5" s="0"/>
+      <c r="AKD5" s="0"/>
+      <c r="AKE5" s="0"/>
+      <c r="AKF5" s="0"/>
+      <c r="AKG5" s="0"/>
+      <c r="AKH5" s="0"/>
+      <c r="AKI5" s="0"/>
+      <c r="AKJ5" s="0"/>
+      <c r="AKK5" s="0"/>
+      <c r="AKL5" s="0"/>
+      <c r="AKM5" s="0"/>
+      <c r="AKN5" s="0"/>
+      <c r="AKO5" s="0"/>
+      <c r="AKP5" s="0"/>
+      <c r="AKQ5" s="0"/>
+      <c r="AKR5" s="0"/>
+      <c r="AKS5" s="0"/>
+      <c r="AKT5" s="0"/>
+      <c r="AKU5" s="0"/>
+      <c r="AKV5" s="0"/>
+      <c r="AKW5" s="0"/>
+      <c r="AKX5" s="0"/>
+      <c r="AKY5" s="0"/>
+      <c r="AKZ5" s="0"/>
+      <c r="ALA5" s="0"/>
+      <c r="ALB5" s="0"/>
+      <c r="ALC5" s="0"/>
+      <c r="ALD5" s="0"/>
+      <c r="ALE5" s="0"/>
+      <c r="ALF5" s="0"/>
+      <c r="ALG5" s="0"/>
+      <c r="ALH5" s="0"/>
+      <c r="ALI5" s="0"/>
+      <c r="ALJ5" s="0"/>
+      <c r="ALK5" s="0"/>
+      <c r="ALL5" s="0"/>
+      <c r="ALM5" s="0"/>
+      <c r="ALN5" s="0"/>
+      <c r="ALO5" s="0"/>
+      <c r="ALP5" s="0"/>
+      <c r="ALQ5" s="0"/>
+      <c r="ALR5" s="0"/>
+      <c r="ALS5" s="0"/>
+      <c r="ALT5" s="0"/>
+      <c r="ALU5" s="0"/>
+      <c r="ALV5" s="0"/>
+      <c r="ALW5" s="0"/>
+      <c r="ALX5" s="0"/>
+      <c r="ALY5" s="0"/>
+      <c r="ALZ5" s="0"/>
+      <c r="AMA5" s="0"/>
+      <c r="AMB5" s="0"/>
+      <c r="AMC5" s="0"/>
+      <c r="AMD5" s="0"/>
+      <c r="AME5" s="0"/>
+      <c r="AMF5" s="0"/>
+      <c r="AMG5" s="0"/>
+    </row>
+    <row r="6" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="36" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="AMH6" s="25"/>
+      <c r="AMI6" s="25"/>
+      <c r="AMJ6" s="25"/>
+    </row>
+    <row r="7" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="E7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="37" t="s">
-        <v>29</v>
-      </c>
+      <c r="N7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AMH7" s="25"/>
+      <c r="AMI7" s="25"/>
+      <c r="AMJ7" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5190,77 +5988,76 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:9"/>
+  <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="6:7 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="41" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="41" width="6.75"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="41" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="42" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="41" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="41" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="41" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="41" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="27" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="6.75"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="27" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="27" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="27" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
+    <row r="1" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="G1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="H1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="I1" s="31" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="48" t="n">
+      <c r="B2" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="48" t="n">
+      <c r="C2" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="48" t="n">
+      <c r="D2" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="48" t="n">
+      <c r="E2" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="F2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
@@ -6278,172 +7075,153 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="50" t="n">
+      <c r="B3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="50" t="n">
+      <c r="C3" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="50" t="n">
+      <c r="D3" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="50" t="n">
+      <c r="E3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="F3" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="50" t="n">
+      <c r="B4" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="50" t="n">
+      <c r="C4" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="50" t="n">
+      <c r="D4" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="50" t="n">
+      <c r="E4" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="F4" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="50" t="n">
+      <c r="B5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="50" t="n">
+      <c r="C5" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="50" t="n">
+      <c r="D5" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="50" t="n">
+      <c r="E5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="F5" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="50" t="n">
+      <c r="B6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="50" t="n">
+      <c r="C6" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="50" t="n">
+      <c r="D6" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="50" t="n">
+      <c r="E6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="F6" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="50" t="n">
+      <c r="B7" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="50" t="n">
+      <c r="C7" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="50" t="n">
+      <c r="D7" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="50" t="n">
+      <c r="E7" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="F7" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="50" t="n">
+      <c r="A8" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="57"/>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/SINOTH_SAND/Data/Template.xlsx
+++ b/Projects/SINOTH_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="kpis" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="44">
   <si>
     <t xml:space="preserve">kpi_name</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t xml:space="preserve">Main Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">candy, chocolate, gum, gummy</t>
   </si>
   <si>
     <t xml:space="preserve">ASSORTMENTS</t>
@@ -332,7 +335,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -481,6 +484,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -561,17 +568,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="6:7 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.5357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,26 +675,25 @@
   </sheetPr>
   <dimension ref="1:7"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A7" activeCellId="0" sqref="6:7"/>
+      <selection pane="topRight" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="54.1326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="55.8877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="11" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="11" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="11" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="11" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="11" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="11" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1021" min="15" style="11" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="53.4591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="11" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="11" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="11" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="11" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="11" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="11" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1021" min="15" style="11" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5933,7 +5940,7 @@
       <c r="AMI6" s="25"/>
       <c r="AMJ6" s="25"/>
     </row>
-    <row r="7" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
         <v>9</v>
       </c>
@@ -5990,21 +5997,22 @@
   </sheetPr>
   <dimension ref="1:8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="6:7 A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="27" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="6.75"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="27" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="27" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="27" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="55.2040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="8.5765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="6.87755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="9.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="6.72448979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="22.1632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="27" width="27.4132653061224"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="17.3775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="27" width="20.9234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="27" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6055,7 +6063,9 @@
       <c r="F2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="33" t="s">
+        <v>41</v>
+      </c>
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
       <c r="J2" s="0"/>
@@ -7093,7 +7103,9 @@
       <c r="F3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
       <c r="J3" s="0"/>
@@ -7117,7 +7129,9 @@
       <c r="F4" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
       <c r="J4" s="0"/>
@@ -7141,7 +7155,9 @@
       <c r="F5" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
       <c r="J5" s="0"/>
@@ -7165,7 +7181,9 @@
       <c r="F6" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
       <c r="J6" s="0"/>
@@ -7189,38 +7207,40 @@
       <c r="F7" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
       <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="34" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>42</v>
+      <c r="G8" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/SINOTH_SAND/Data/Template.xlsx
+++ b/Projects/SINOTH_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="kpis" sheetId="1" state="visible" r:id="rId2"/>
@@ -568,18 +568,17 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2:D7 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.5357142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,22 +677,23 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topRight" activeCell="A7" activeCellId="1" sqref="D2:D7 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="53.4591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="11" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="11" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="11" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="11" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="11" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="11" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1021" min="15" style="11" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="52.780612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="54.5357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="11" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="11" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="11" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="11" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="11" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="11" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1021" min="15" style="11" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5998,21 +5998,21 @@
   <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="55.2040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="8.5765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="6.87755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="9.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="6.72448979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="22.1632653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="27" width="27.4132653061224"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="17.3775510204082"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="27" width="20.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="27" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="54.5357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="6.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="27" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="27" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="27" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6055,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="33" t="n">
         <v>0</v>
@@ -7095,7 +7095,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="34" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="34" t="n">
         <v>0</v>
@@ -7147,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="34" t="n">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="34" t="n">
         <v>0</v>
@@ -7199,7 +7199,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="34" t="n">
         <v>0</v>

--- a/Projects/SINOTH_SAND/Data/Template.xlsx
+++ b/Projects/SINOTH_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="kpis" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
   <si>
     <t xml:space="preserve">kpi_name</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t xml:space="preserve">FSOS_ALL_DISTRIBUTOR_ALL_CAT_ALL_BRAND_ALL_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACINGS_COUNT_BY_DISTRIBUTOR_SCENETYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACINGS_COUNT_BY_DISTRIBUTOR_SCENETYPE_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">kpi_parent</t>
@@ -118,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scene_type</t>
   </si>
   <si>
     <t xml:space="preserve">stacking</t>
@@ -193,7 +205,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +256,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFC8F9D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC5F9CB"/>
         <bgColor rgb="FFC8F9D0"/>
       </patternFill>
@@ -257,7 +275,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5C2F5"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -335,7 +353,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -380,6 +398,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -396,10 +426,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -409,6 +435,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -444,6 +474,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -476,7 +514,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -513,7 +559,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -565,20 +611,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2:D7 B2"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="E9 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,9 +698,30 @@
       </c>
       <c r="D7" s="6"/>
     </row>
+    <row r="8" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -672,72 +738,72 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:7"/>
+  <dimension ref="1:9"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A7" activeCellId="1" sqref="D2:D7 A7"/>
+      <selection pane="topRight" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="52.780612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="54.5357142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="11" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="11" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="11" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="11" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="11" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="11" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1021" min="15" style="11" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="49.6785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="51.4336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="14" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="14" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="14" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="14" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1021" min="15" style="14" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O1" s="0"/>
       <c r="P1" s="0"/>
@@ -1748,33 +1814,33 @@
       <c r="AMG1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="14" t="s">
+      <c r="C2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>27</v>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="O2" s="0"/>
       <c r="P2" s="0"/>
@@ -2788,32 +2854,32 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="14" t="s">
+      <c r="C3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>29</v>
+      <c r="D3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
@@ -3827,34 +3893,34 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="O4" s="0"/>
       <c r="P4" s="0"/>
@@ -4865,35 +4931,35 @@
       <c r="AMG4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>27</v>
+      <c r="N5" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="O5" s="0"/>
       <c r="P5" s="0"/>
@@ -5903,81 +5969,143 @@
       <c r="AMF5" s="0"/>
       <c r="AMG5" s="0"/>
     </row>
-    <row r="6" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
+    <row r="6" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AMH6" s="25"/>
-      <c r="AMI6" s="25"/>
-      <c r="AMJ6" s="25"/>
+      <c r="N6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMH6" s="28"/>
+      <c r="AMI6" s="28"/>
+      <c r="AMJ6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="N7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AMH7" s="28"/>
+      <c r="AMI7" s="28"/>
+      <c r="AMJ7" s="28"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="30"/>
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="14" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="30"/>
+      <c r="B9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AMH7" s="25"/>
-      <c r="AMI7" s="25"/>
-      <c r="AMJ7" s="25"/>
+      <c r="N9" s="30" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5995,79 +6123,79 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:8"/>
+  <dimension ref="1:10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="1" sqref="E9 F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="54.5357142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="6.75"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="27" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="27" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="27" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="32" width="51.4336734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="32" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="32" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="32" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="32" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="32" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="32" width="10.3928571428571"/>
   </cols>
   <sheetData>
-    <row r="1" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+    <row r="1" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="C1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="D1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="E1" s="35" t="s">
         <v>39</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="33" t="n">
+      <c r="B2" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="n">
+      <c r="C2" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="33" t="n">
+      <c r="D2" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="33" t="n">
+      <c r="E2" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="F2" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
@@ -7085,162 +7213,214 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="34" t="n">
+      <c r="B3" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="n">
+      <c r="C3" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="34" t="n">
+      <c r="D3" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="34" t="n">
+      <c r="E3" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="F3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34" t="n">
+      <c r="B4" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="34" t="n">
+      <c r="C4" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="34" t="n">
+      <c r="D4" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="34" t="n">
+      <c r="E4" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="F4" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="34" t="n">
+      <c r="B5" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="34" t="n">
+      <c r="C5" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="34" t="n">
+      <c r="D5" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="34" t="n">
+      <c r="E5" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="F5" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="34" t="n">
+      <c r="B6" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="34" t="n">
+      <c r="C6" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="34" t="n">
+      <c r="D6" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="34" t="n">
+      <c r="E6" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="F6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="34" t="n">
+      <c r="B7" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="34" t="n">
+      <c r="C7" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="34" t="n">
+      <c r="D7" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="34" t="n">
+      <c r="E7" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="F7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="34" t="n">
+    <row r="8" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>43</v>
+      <c r="D8" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/SINOTH_SAND/Data/Template.xlsx
+++ b/Projects/SINOTH_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="kpis" sheetId="1" state="visible" r:id="rId2"/>
@@ -159,7 +159,7 @@
     <t xml:space="preserve">Main Shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">candy, chocolate, gum, gummy</t>
+    <t xml:space="preserve">candy, chocolate, gum, gummy, lollipop</t>
   </si>
   <si>
     <t xml:space="preserve">ASSORTMENTS</t>
@@ -353,7 +353,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -514,10 +514,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -528,10 +524,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -614,16 +606,17 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="E9 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.7551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.0816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -740,7 +733,7 @@
   </sheetPr>
   <dimension ref="1:9"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E9" activeCellId="0" sqref="E9"/>
@@ -748,18 +741,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="49.6785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="14" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="14" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="14" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="14" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1021" min="15" style="14" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="49.1377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="14" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="14" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="14" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="14" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1021" min="15" style="14" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6125,22 +6118,22 @@
   </sheetPr>
   <dimension ref="1:10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="1" sqref="E9 F30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="32" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="32" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="32" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="32" width="7.56122448979592"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="32" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="32" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="32" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="32" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="32" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="32" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="32" width="34.3622448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="32" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="32" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="32" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7231,7 +7224,7 @@
       <c r="F3" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="39"/>
@@ -7257,7 +7250,7 @@
       <c r="F4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="39"/>
@@ -7283,7 +7276,7 @@
       <c r="F5" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H5" s="39"/>
@@ -7309,7 +7302,7 @@
       <c r="F6" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="39"/>
@@ -7335,7 +7328,7 @@
       <c r="F7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H7" s="39"/>
@@ -7346,56 +7339,56 @@
       <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="41" t="n">
+      <c r="B8" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="41" t="n">
+      <c r="C8" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="41" t="n">
+      <c r="D8" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="41" t="n">
+      <c r="E8" s="40" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="41" t="n">
+      <c r="B9" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="41" t="n">
+      <c r="C9" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="41" t="n">
+      <c r="D9" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="41" t="n">
+      <c r="E9" s="40" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="39" t="n">
@@ -7407,13 +7400,13 @@
       <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="42" t="s">
         <v>47</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="4" t="s">

--- a/Projects/SINOTH_SAND/Data/Template.xlsx
+++ b/Projects/SINOTH_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="kpis" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
   <si>
     <t xml:space="preserve">kpi_name</t>
   </si>
@@ -57,13 +57,16 @@
     <t xml:space="preserve">FSOS_ALL_DISTRIBUTOR_ALL_CAT_ALL_BRAND_ALL_SKU</t>
   </si>
   <si>
-    <t xml:space="preserve">FACINGS_COUNT_BY_DISTRIBUTOR_SCENETYPE</t>
+    <t xml:space="preserve">FACINGS_COUNT_BY_DISTRIBUTOR_SCENE</t>
   </si>
   <si>
     <t xml:space="preserve">SIMON</t>
   </si>
   <si>
-    <t xml:space="preserve">FACINGS_COUNT_BY_DISTRIBUTOR_SCENETYPE_SKU</t>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACINGS_COUNT_BY_DISTRIBUTOR_SCENE_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">kpi_parent</t>
@@ -127,9 +130,6 @@
   </si>
   <si>
     <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scene_type</t>
   </si>
   <si>
     <t xml:space="preserve">stacking</t>
@@ -205,7 +205,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +256,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC9B6B6"/>
+        <bgColor rgb="FFC5C2F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFC8F9D0"/>
       </patternFill>
@@ -275,7 +281,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5C2F5"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFC9B6B6"/>
       </patternFill>
     </fill>
     <fill>
@@ -353,7 +359,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -402,11 +408,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -426,10 +440,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -439,6 +449,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -474,11 +488,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -518,7 +540,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -551,7 +577,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFC9B6B6"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -576,7 +602,7 @@
       <rgbColor rgb="FF66FF99"/>
       <rgbColor rgb="FFF69ABE"/>
       <rgbColor rgb="FFFF66CC"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33FF99"/>
       <rgbColor rgb="FF66CC00"/>
@@ -605,18 +631,18 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.0816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.8877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,15 +725,15 @@
         <v>12</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>13</v>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -736,67 +762,67 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topRight" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="49.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="50.7551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="14" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="14" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="14" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="14" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1021" min="15" style="14" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="47.9234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="54.5357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="16" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="16" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="12.7448979591837"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="16" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="16" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="16" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1021" min="15" style="16" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="15" t="s">
         <v>26</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="O1" s="0"/>
       <c r="P1" s="0"/>
@@ -1807,33 +1833,33 @@
       <c r="AMG1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="18" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="17" t="s">
-        <v>30</v>
+      <c r="M2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="O2" s="0"/>
       <c r="P2" s="0"/>
@@ -2847,32 +2873,32 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>32</v>
+      <c r="N3" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
@@ -3886,34 +3912,34 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>27</v>
+      <c r="N4" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="O4" s="0"/>
       <c r="P4" s="0"/>
@@ -4924,35 +4950,35 @@
       <c r="AMG4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="18" t="s">
+      <c r="C5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="18" t="s">
+      <c r="D5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="22" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="O5" s="0"/>
       <c r="P5" s="0"/>
@@ -5962,142 +5988,138 @@
       <c r="AMF5" s="0"/>
       <c r="AMG5" s="0"/>
     </row>
-    <row r="6" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
+    <row r="6" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="C6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMH6" s="28"/>
-      <c r="AMI6" s="28"/>
-      <c r="AMJ6" s="28"/>
+      <c r="N6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMH6" s="30"/>
+      <c r="AMI6" s="30"/>
+      <c r="AMJ6" s="30"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="AMH7" s="28"/>
-      <c r="AMI7" s="28"/>
-      <c r="AMJ7" s="28"/>
+      <c r="N7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AMH7" s="30"/>
+      <c r="AMI7" s="30"/>
+      <c r="AMJ7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="22" t="s">
+      <c r="C8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="31" t="s">
-        <v>30</v>
+      <c r="M8" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30"/>
-      <c r="B9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="22" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="30" t="s">
-        <v>33</v>
+      <c r="M9" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6118,77 +6140,77 @@
   </sheetPr>
   <dimension ref="1:10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="32" width="50.7551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="32" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="32" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="32" width="34.3622448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="32" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="32" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="32" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="55.2040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="36" width="8.5765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="6.87755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="9.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="6.72448979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="22.1632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="34.3622448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="36" width="17.3775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="36" width="20.9234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="36" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
+    <row r="1" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="38" t="n">
+      <c r="B2" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="38" t="n">
+      <c r="C2" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="38" t="n">
+      <c r="D2" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
@@ -7206,192 +7228,192 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="39" t="n">
+      <c r="B3" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="n">
+      <c r="C3" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="39" t="n">
+      <c r="D3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="39" t="n">
+      <c r="B4" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="39" t="n">
+      <c r="C4" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="39" t="n">
+      <c r="D4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="39" t="n">
+      <c r="B5" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="39" t="n">
+      <c r="C5" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="39" t="n">
+      <c r="D5" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="39" t="n">
+      <c r="B6" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="39" t="n">
+      <c r="C6" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="39" t="n">
+      <c r="D6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="39" t="n">
+      <c r="B7" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="39" t="n">
+      <c r="C7" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="39" t="n">
+      <c r="D7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="40" t="n">
+      <c r="B8" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="40" t="n">
+      <c r="C8" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="40" t="n">
+      <c r="D8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="40" t="n">
+      <c r="A9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="40" t="n">
+      <c r="C9" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="40" t="n">
+      <c r="D9" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="39" t="n">
+      <c r="B10" s="43" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -7400,13 +7422,13 @@
       <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="42" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="4" t="s">

--- a/Projects/SINOTH_SAND/Data/Template.xlsx
+++ b/Projects/SINOTH_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="kpis" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
   <si>
     <t xml:space="preserve">kpi_name</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t xml:space="preserve">candy, chocolate, gum, gummy, lollipop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Shelf, Promotional Shelf</t>
   </si>
   <si>
     <t xml:space="preserve">ASSORTMENTS</t>
@@ -631,18 +634,17 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="F9 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.8877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,23 +764,23 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K21" activeCellId="0" sqref="K21"/>
+      <selection pane="topRight" activeCell="K21" activeCellId="1" sqref="F9 K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="47.9234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="54.5357142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="16" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="16" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="12.7448979591837"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="16" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="16" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="16" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="1021" min="15" style="16" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="47.2448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="16" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="16" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="16" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="16" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="16" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1021" min="15" style="16" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6140,22 +6142,22 @@
   </sheetPr>
   <dimension ref="1:10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="55.2040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="36" width="8.5765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="6.87755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="9.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="6.72448979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="22.1632653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="34.3622448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="36" width="17.3775510204082"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="36" width="20.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="36" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="54.5357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="36" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="6.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="26.484693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="36" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="36" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="36" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7374,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>45</v>
@@ -7399,8 +7401,8 @@
       <c r="E9" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>44</v>
+      <c r="F9" s="45" t="s">
+        <v>46</v>
       </c>
       <c r="G9" s="42" t="s">
         <v>45</v>
@@ -7411,19 +7413,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="43" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>44</v>
@@ -7432,10 +7434,10 @@
         <v>45</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/SINOTH_SAND/Data/Template.xlsx
+++ b/Projects/SINOTH_SAND/Data/Template.xlsx
@@ -159,7 +159,7 @@
     <t xml:space="preserve">Main Shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">candy, chocolate, gum, gummy, lollipop</t>
+    <t xml:space="preserve">General, candy, chocolate, gum, gummy, lollipop</t>
   </si>
   <si>
     <t xml:space="preserve">Main Shelf, Promotional Shelf</t>
@@ -635,16 +635,18 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="F9 D11"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="G10 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,23 +766,23 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K21" activeCellId="1" sqref="F9 K21"/>
+      <selection pane="topRight" activeCell="K21" activeCellId="1" sqref="G10 K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="47.2448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="53.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="16" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="16" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="16" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="16" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="16" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1021" min="15" style="16" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="46.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="52.5102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="16" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="16" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="16" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="16" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="16" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1021" min="15" style="16" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="7.02040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6143,21 +6145,21 @@
   <dimension ref="1:10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="54.5357142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="36" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="6.75"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="26.484693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="36" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="36" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="36" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="36" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="42.0816326530612"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="36" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="36" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="36" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7378,7 +7380,7 @@
       <c r="F8" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="42" t="s">
         <v>45</v>
       </c>
       <c r="H8" s="44"/>

--- a/Projects/SINOTH_SAND/Data/Template.xlsx
+++ b/Projects/SINOTH_SAND/Data/Template.xlsx
@@ -635,18 +635,17 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="G10 A9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,23 +765,23 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K21" activeCellId="1" sqref="G10 K21"/>
+      <selection pane="topRight" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="46.1683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="52.5102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="16" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="16" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="16" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="16" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="16" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1021" min="15" style="16" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="45.6275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="51.969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="16" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="16" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="16" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="16" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="16" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1021" min="15" style="16" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="6.88265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6145,21 +6144,21 @@
   <dimension ref="1:10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="53.1887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="36" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="42.0816326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="36" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="36" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="36" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="52.5102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="36" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="36" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="36" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="36" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6202,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="42" t="n">
         <v>0</v>
@@ -7242,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="43" t="n">
         <v>0</v>
@@ -7268,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="43" t="n">
         <v>0</v>
@@ -7294,7 +7293,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="43" t="n">
         <v>0</v>
@@ -7320,7 +7319,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="43" t="n">
         <v>0</v>
@@ -7346,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="43" t="n">
         <v>0</v>
@@ -7372,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="44" t="n">
         <v>0</v>
@@ -7398,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="45" t="n">
         <v>0</v>

--- a/Projects/SINOTH_SAND/Data/Template.xlsx
+++ b/Projects/SINOTH_SAND/Data/Template.xlsx
@@ -159,7 +159,7 @@
     <t xml:space="preserve">Main Shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">General, candy, chocolate, gum, gummy, lollipop</t>
+    <t xml:space="preserve">candy, chocolate, gum, gummy, lollipop</t>
   </si>
   <si>
     <t xml:space="preserve">Main Shelf, Promotional Shelf</t>
@@ -640,12 +640,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.1887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.5102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,18 +769,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="45.6275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="51.969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="16" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="16" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="16" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="16" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="16" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1021" min="15" style="16" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="44.9540816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="51.4336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="16" width="6.75"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="16" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="16" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="16" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="16" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1021" min="15" style="16" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6144,21 +6143,21 @@
   <dimension ref="1:10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="52.5102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="36" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="36" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="36" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="36" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="51.969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="36" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="36" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="36" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="36" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
